--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code_tesis\stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="-105" windowWidth="18450" windowHeight="11025" tabRatio="777" activeTab="5"/>
+    <workbookView xWindow="3660" yWindow="-105" windowWidth="18450" windowHeight="11025" tabRatio="777"/>
   </bookViews>
   <sheets>
     <sheet name="data_etapa1" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
     <t>ANTEBRAZO TACTOR</t>
   </si>
   <si>
-    <t>`</t>
+    <t>ANTEBRAZO BRUSH</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1285,27 +1285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1324,9 +1303,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1335,9 +1311,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1347,6 +1320,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2295,7 +2296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>`</c:v>
+                  <c:v>ANTEBRAZO BRUSH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2379,7 +2380,7 @@
             <c:numRef>
               <c:f>data_etapaUi_means!$B$15:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.2399999999999998</c:v>
@@ -3422,9 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3463,81 +3462,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B1" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93" t="s">
+      <c r="B1" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93" t="s">
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93" t="s">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93" t="s">
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93" t="s">
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93" t="s">
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93" t="s">
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93" t="s">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93" t="s">
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93" t="s">
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93" t="s">
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="94" t="s">
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7880,37 +7879,31 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="100" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="107" t="s">
+      <c r="B36" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="100" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="100" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B1:D1"/>
@@ -7920,6 +7913,12 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7930,9 +7929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7970,81 +7967,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B1" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93" t="s">
+      <c r="B1" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93" t="s">
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93" t="s">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93" t="s">
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93" t="s">
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93" t="s">
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93" t="s">
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93" t="s">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93" t="s">
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93" t="s">
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93" t="s">
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="94" t="s">
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -9028,6 +9025,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
@@ -9037,12 +9040,6 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9053,9 +9050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:G37"/>
-    </sheetView>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10289,11 +10284,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10311,59 +10304,59 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
-      <c r="B1" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93" t="s">
+      <c r="B1" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94" t="s">
+      <c r="G1" s="112"/>
+      <c r="H1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="93" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="93"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="99" t="s">
         <v>103</v>
       </c>
     </row>
@@ -10374,19 +10367,19 @@
       <c r="B3" s="40">
         <v>-7</v>
       </c>
-      <c r="C3" s="100">
-        <v>2</v>
-      </c>
-      <c r="D3" s="104">
-        <v>1</v>
-      </c>
-      <c r="E3" s="100">
+      <c r="C3" s="93">
+        <v>2</v>
+      </c>
+      <c r="D3" s="97">
+        <v>1</v>
+      </c>
+      <c r="E3" s="93">
         <v>3</v>
       </c>
       <c r="F3" s="44">
         <v>1</v>
       </c>
-      <c r="G3" s="101">
+      <c r="G3" s="94">
         <v>3</v>
       </c>
       <c r="H3" s="31">
@@ -10398,7 +10391,7 @@
       <c r="J3" s="44">
         <v>-2</v>
       </c>
-      <c r="K3" s="101">
+      <c r="K3" s="94">
         <v>3</v>
       </c>
     </row>
@@ -10409,19 +10402,19 @@
       <c r="B4" s="44">
         <v>-7</v>
       </c>
-      <c r="C4" s="101">
+      <c r="C4" s="94">
         <v>3</v>
       </c>
       <c r="D4" s="31">
         <v>-1</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="94">
         <v>3</v>
       </c>
       <c r="F4" s="44">
         <v>6</v>
       </c>
-      <c r="G4" s="101">
+      <c r="G4" s="94">
         <v>-1</v>
       </c>
       <c r="H4" s="31">
@@ -10433,7 +10426,7 @@
       <c r="J4" s="44">
         <v>-2</v>
       </c>
-      <c r="K4" s="101">
+      <c r="K4" s="94">
         <v>4</v>
       </c>
     </row>
@@ -10444,19 +10437,19 @@
       <c r="B5" s="44">
         <v>-4</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="94">
         <v>5</v>
       </c>
       <c r="D5" s="31">
         <v>-1</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="94">
         <v>3</v>
       </c>
       <c r="F5" s="44">
         <v>2</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="94">
         <v>-3</v>
       </c>
       <c r="H5" s="31">
@@ -10468,7 +10461,7 @@
       <c r="J5" s="44">
         <v>5</v>
       </c>
-      <c r="K5" s="101">
+      <c r="K5" s="94">
         <v>4</v>
       </c>
     </row>
@@ -10479,19 +10472,19 @@
       <c r="B6" s="44">
         <v>2</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="94">
         <v>5</v>
       </c>
       <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="94">
         <v>3</v>
       </c>
       <c r="F6" s="44">
         <v>-2</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="94">
         <v>-1</v>
       </c>
       <c r="H6" s="31">
@@ -10503,7 +10496,7 @@
       <c r="J6" s="44">
         <v>-5</v>
       </c>
-      <c r="K6" s="101">
+      <c r="K6" s="94">
         <v>4</v>
       </c>
     </row>
@@ -10514,19 +10507,19 @@
       <c r="B7" s="44">
         <v>-9</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="94">
         <v>5</v>
       </c>
       <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="94">
         <v>3</v>
       </c>
       <c r="F7" s="44">
         <v>-4</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="94">
         <v>-4</v>
       </c>
       <c r="H7" s="31">
@@ -10538,7 +10531,7 @@
       <c r="J7" s="44">
         <v>-2</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="94">
         <v>4</v>
       </c>
     </row>
@@ -10552,28 +10545,28 @@
       <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="104">
-        <v>1</v>
-      </c>
-      <c r="E8" s="100">
+      <c r="D8" s="97">
+        <v>1</v>
+      </c>
+      <c r="E8" s="93">
         <v>2</v>
       </c>
       <c r="F8" s="40">
         <v>2</v>
       </c>
-      <c r="G8" s="100">
-        <v>4</v>
-      </c>
-      <c r="H8" s="104">
-        <v>4</v>
-      </c>
-      <c r="I8" s="104">
+      <c r="G8" s="93">
+        <v>4</v>
+      </c>
+      <c r="H8" s="97">
+        <v>4</v>
+      </c>
+      <c r="I8" s="97">
         <v>5</v>
       </c>
       <c r="J8" s="40">
         <v>-1</v>
       </c>
-      <c r="K8" s="100">
+      <c r="K8" s="93">
         <v>0</v>
       </c>
     </row>
@@ -10590,13 +10583,13 @@
       <c r="D9" s="31">
         <v>-2</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="94">
         <v>3</v>
       </c>
       <c r="F9" s="44">
         <v>2</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="94">
         <v>5</v>
       </c>
       <c r="H9" s="31">
@@ -10608,7 +10601,7 @@
       <c r="J9" s="44">
         <v>2</v>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="94">
         <v>0</v>
       </c>
     </row>
@@ -10625,13 +10618,13 @@
       <c r="D10" s="31">
         <v>-3</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="94">
         <v>2</v>
       </c>
       <c r="F10" s="44">
         <v>-1</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="94">
         <v>-2</v>
       </c>
       <c r="H10" s="31">
@@ -10643,7 +10636,7 @@
       <c r="J10" s="44">
         <v>5</v>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="94">
         <v>0</v>
       </c>
     </row>
@@ -10660,13 +10653,13 @@
       <c r="D11" s="31">
         <v>2</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="94">
         <v>1</v>
       </c>
       <c r="F11" s="44">
         <v>5</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="94">
         <v>-1</v>
       </c>
       <c r="H11" s="31">
@@ -10678,7 +10671,7 @@
       <c r="J11" s="44">
         <v>3</v>
       </c>
-      <c r="K11" s="101">
+      <c r="K11" s="94">
         <v>1</v>
       </c>
     </row>
@@ -10692,28 +10685,28 @@
       <c r="C12" s="14">
         <v>3</v>
       </c>
-      <c r="D12" s="103">
-        <v>1</v>
-      </c>
-      <c r="E12" s="102">
+      <c r="D12" s="96">
+        <v>1</v>
+      </c>
+      <c r="E12" s="95">
         <v>1</v>
       </c>
       <c r="F12" s="49">
         <v>1</v>
       </c>
-      <c r="G12" s="102">
-        <v>1</v>
-      </c>
-      <c r="H12" s="103">
-        <v>4</v>
-      </c>
-      <c r="I12" s="103">
+      <c r="G12" s="95">
+        <v>1</v>
+      </c>
+      <c r="H12" s="96">
+        <v>4</v>
+      </c>
+      <c r="I12" s="96">
         <v>5</v>
       </c>
       <c r="J12" s="49">
         <v>5</v>
       </c>
-      <c r="K12" s="102">
+      <c r="K12" s="95">
         <v>0</v>
       </c>
     </row>
@@ -10730,13 +10723,13 @@
       <c r="D13" s="31">
         <v>3</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="94">
         <v>0</v>
       </c>
       <c r="F13" s="44">
         <v>4</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="94">
         <v>2</v>
       </c>
       <c r="H13" s="31">
@@ -10748,7 +10741,7 @@
       <c r="J13" s="44">
         <v>3</v>
       </c>
-      <c r="K13" s="101">
+      <c r="K13" s="94">
         <v>2</v>
       </c>
     </row>
@@ -10765,13 +10758,13 @@
       <c r="D14" s="31">
         <v>2</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="94">
         <v>0</v>
       </c>
       <c r="F14" s="44">
         <v>4</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="94">
         <v>1</v>
       </c>
       <c r="H14" s="31">
@@ -10783,7 +10776,7 @@
       <c r="J14" s="44">
         <v>3</v>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="94">
         <v>2</v>
       </c>
     </row>
@@ -10800,13 +10793,13 @@
       <c r="D15" s="31">
         <v>1</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="94">
         <v>0</v>
       </c>
       <c r="F15" s="44">
         <v>-3</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="94">
         <v>1</v>
       </c>
       <c r="H15" s="31">
@@ -10818,7 +10811,7 @@
       <c r="J15" s="44">
         <v>7</v>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="94">
         <v>2</v>
       </c>
     </row>
@@ -10835,13 +10828,13 @@
       <c r="D16" s="31">
         <v>3</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="94">
         <v>-1</v>
       </c>
       <c r="F16" s="44">
         <v>3</v>
       </c>
-      <c r="G16" s="101">
+      <c r="G16" s="94">
         <v>0</v>
       </c>
       <c r="H16" s="31">
@@ -10853,7 +10846,7 @@
       <c r="J16" s="44">
         <v>4</v>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="94">
         <v>3</v>
       </c>
     </row>
@@ -10867,30 +10860,57 @@
       <c r="C17" s="14">
         <v>0</v>
       </c>
-      <c r="D17" s="103">
-        <v>3</v>
-      </c>
-      <c r="E17" s="102">
+      <c r="D17" s="96">
+        <v>3</v>
+      </c>
+      <c r="E17" s="95">
         <v>1</v>
       </c>
       <c r="F17" s="49">
         <v>2</v>
       </c>
-      <c r="G17" s="102">
-        <v>0</v>
-      </c>
-      <c r="H17" s="103">
-        <v>2</v>
-      </c>
-      <c r="I17" s="103">
+      <c r="G17" s="95">
+        <v>0</v>
+      </c>
+      <c r="H17" s="96">
+        <v>2</v>
+      </c>
+      <c r="I17" s="96">
         <v>1</v>
       </c>
       <c r="J17" s="49">
         <v>7</v>
       </c>
-      <c r="K17" s="102">
-        <v>2</v>
-      </c>
+      <c r="K17" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10908,67 +10928,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" activeCellId="4" sqref="C5 E5 G5 I5 K5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
-      <c r="B1" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="110" t="s">
+      <c r="B1" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="117" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="110" t="s">
+      <c r="I1" s="115"/>
+      <c r="J1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="94"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="116" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="116" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="115" t="s">
+      <c r="B2" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="107" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10976,7 +10994,7 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="112">
+      <c r="B3" s="104">
         <v>-5</v>
       </c>
       <c r="C3" s="18">
@@ -10988,7 +11006,7 @@
       <c r="E3" s="17">
         <v>3</v>
       </c>
-      <c r="F3" s="112">
+      <c r="F3" s="104">
         <v>0.6</v>
       </c>
       <c r="G3" s="18">
@@ -11000,7 +11018,7 @@
       <c r="I3" s="17">
         <v>1.6</v>
       </c>
-      <c r="J3" s="112">
+      <c r="J3" s="104">
         <v>-1.2</v>
       </c>
       <c r="K3" s="18">
@@ -11011,7 +11029,7 @@
       <c r="A4" s="2">
         <v>30</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="104">
         <v>5</v>
       </c>
       <c r="C4" s="18">
@@ -11023,7 +11041,7 @@
       <c r="E4" s="17">
         <v>1.8</v>
       </c>
-      <c r="F4" s="112">
+      <c r="F4" s="104">
         <v>1.8</v>
       </c>
       <c r="G4" s="18">
@@ -11035,7 +11053,7 @@
       <c r="I4" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J4" s="112">
+      <c r="J4" s="104">
         <v>2.8</v>
       </c>
       <c r="K4" s="18">
@@ -11046,7 +11064,7 @@
       <c r="A5" s="3">
         <v>300</v>
       </c>
-      <c r="B5" s="113">
+      <c r="B5" s="105">
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="20">
@@ -11058,7 +11076,7 @@
       <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="105">
         <v>2</v>
       </c>
       <c r="G5" s="20">
@@ -11070,7 +11088,7 @@
       <c r="I5" s="19">
         <v>0.6</v>
       </c>
-      <c r="J5" s="113">
+      <c r="J5" s="105">
         <v>4.8</v>
       </c>
       <c r="K5" s="20">
@@ -11093,7 +11111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11102,7 +11122,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="109" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="91" t="s">
@@ -11217,16 +11237,16 @@
       <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="111" t="s">
         <v>108</v>
       </c>
       <c r="E9" s="31"/>
@@ -11395,7 +11415,7 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -11434,7 +11454,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="26" t="s">
         <v>19</v>
       </c>
@@ -11471,7 +11491,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="116" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -11512,7 +11532,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
@@ -11549,7 +11569,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="116" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -11590,7 +11610,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
@@ -11627,7 +11647,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="116" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -11668,7 +11688,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
@@ -11705,7 +11725,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="116" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -11746,7 +11766,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
@@ -11783,7 +11803,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="116" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -11824,7 +11844,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="26" t="s">
         <v>19</v>
       </c>
@@ -11851,7 +11871,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="116" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -11882,7 +11902,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
@@ -11909,7 +11929,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="116" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -11940,7 +11960,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="26" t="s">
         <v>19</v>
       </c>
@@ -11967,7 +11987,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="116" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -11988,7 +12008,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
@@ -12005,7 +12025,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="116" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -12026,7 +12046,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
@@ -12043,7 +12063,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="116" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -12055,7 +12075,7 @@
       <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="26" t="s">
         <v>19</v>
       </c>
@@ -12064,7 +12084,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -12075,7 +12095,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
@@ -12084,7 +12104,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="116" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -12095,7 +12115,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
@@ -12104,7 +12124,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="116" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -12115,7 +12135,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="26" t="s">
         <v>19</v>
       </c>
@@ -12124,7 +12144,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="116" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -12135,7 +12155,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="26" t="s">
         <v>19</v>
       </c>
@@ -12145,6 +12165,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -12154,12 +12180,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12422,44 +12442,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
       <c r="G1" s="85"/>
       <c r="H1" s="58"/>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="86"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
     </row>
     <row r="3" spans="1:16" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
@@ -13231,42 +13251,42 @@
       <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="86"/>
       <c r="H20" s="59"/>
-      <c r="I20" s="99" t="s">
+      <c r="I20" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
     </row>
     <row r="21" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="I21" s="99" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="I21" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code_tesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBCED31-1627-4D6F-A025-B0E29D4AE546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="-105" windowWidth="18450" windowHeight="11025" tabRatio="777"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="777" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_etapa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">stats2!$I$3:$N$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="126">
   <si>
     <t>rnd</t>
   </si>
@@ -121,12 +122,6 @@
   </si>
   <si>
     <t>mean6 (s=200)</t>
-  </si>
-  <si>
-    <t>ESPALDA</t>
-  </si>
-  <si>
-    <t>ANTEBRAZO</t>
   </si>
   <si>
     <t>MEAN</t>
@@ -554,9 +549,6 @@
     <t>Significant</t>
   </si>
   <si>
-    <t>ANTEBRAZO Tactor</t>
-  </si>
-  <si>
     <t>AntebrazoBrush</t>
   </si>
   <si>
@@ -583,11 +575,65 @@
   <si>
     <t>ANTEBRAZO BRUSH</t>
   </si>
+  <si>
+    <t>Upper Back - Brush Stroke</t>
+  </si>
+  <si>
+    <t>Forearm - Brush Stroke</t>
+  </si>
+  <si>
+    <t>Forearm - Tactor vibration</t>
+  </si>
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Subject 4</t>
+  </si>
+  <si>
+    <t>Subject 5</t>
+  </si>
+  <si>
+    <t>Subject 6</t>
+  </si>
+  <si>
+    <t>Subject 7</t>
+  </si>
+  <si>
+    <t>Subject 8</t>
+  </si>
+  <si>
+    <t>Subject 9</t>
+  </si>
+  <si>
+    <t>Subject 10</t>
+  </si>
+  <si>
+    <t>Subject 11</t>
+  </si>
+  <si>
+    <t>Subject 12</t>
+  </si>
+  <si>
+    <t>Subject 13</t>
+  </si>
+  <si>
+    <t>Subject 14</t>
+  </si>
+  <si>
+    <t>Subject 15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1158,7 +1204,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1320,6 +1365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1347,11 +1396,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet2" xfId="1"/>
+    <cellStyle name="Normal_Sheet2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1374,7 +1422,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1405,7 +1453,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>data_means!$B$37:$G$37</c:f>
+              <c:f>data_means!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1432,7 +1480,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_means!$B$17:$G$17</c:f>
+              <c:f>data_means!$B$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1478,7 +1526,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>data_means!$B$37:$G$37</c:f>
+              <c:f>data_means!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1505,7 +1553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_means!$B$35:$G$35</c:f>
+              <c:f>data_means!$B$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1567,7 +1615,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>data_means!$B$37:$G$37</c15:sqref>
+                          <c15:sqref>data_means!$B$38:$G$38</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1600,7 +1648,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>data_means!$B$55:$G$55</c15:sqref>
+                          <c15:sqref>data_means!$B$56:$G$56</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1668,7 +1716,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -1705,7 +1752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628651759"/>
@@ -1753,7 +1800,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -1784,7 +1830,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628649263"/>
@@ -1794,7 +1840,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1808,7 +1853,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1822,7 +1867,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1853,7 +1898,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>data_means!$B$37:$G$37</c:f>
+              <c:f>data_means!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1880,7 +1925,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_means!$B$35:$G$35</c:f>
+              <c:f>data_means!$B$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1926,7 +1971,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>data_means!$B$37:$G$37</c:f>
+              <c:f>data_means!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1953,7 +1998,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_means!$B$55:$G$55</c:f>
+              <c:f>data_means!$B$56:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2015,7 +2060,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>data_means!$B$37:$G$37</c15:sqref>
+                          <c15:sqref>data_means!$B$38:$G$38</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2048,7 +2093,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>data_means!$B$17:$G$17</c15:sqref>
+                          <c15:sqref>data_means!$B$18:$G$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2115,7 +2160,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -2152,7 +2196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628651759"/>
@@ -2200,7 +2244,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -2231,7 +2274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628649263"/>
@@ -2241,7 +2284,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2255,7 +2297,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2269,7 +2311,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2444,7 +2486,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -2481,7 +2522,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628651759"/>
@@ -2529,7 +2570,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
@@ -2560,7 +2600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628649263"/>
@@ -2570,7 +2610,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2584,7 +2623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2601,13 +2640,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>499784</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>220155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>434133</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>77755</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2615,7 +2654,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,13 +2676,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>524847</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>126351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>459196</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>168619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2651,7 +2690,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2733,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2776,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDD48C8-6026-4762-9B49-044F11526C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2834,7 @@
         <xdr:cNvPr id="4" name="Arrow: Right 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E15091-540C-45D6-B6F6-4F12DFEC3887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,125 +3459,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B1" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="B1" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112" t="s">
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112" t="s">
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112" t="s">
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112" t="s">
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112" t="s">
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112" t="s">
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112" t="s">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112" t="s">
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112" t="s">
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112" t="s">
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="113" t="s">
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3678,7 +3717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3818,7 +3857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3958,7 +3997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4098,7 +4137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4238,7 +4277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -4378,7 +4417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -4518,7 +4557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -4658,7 +4697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -4798,7 +4837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4938,7 +4977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5078,7 +5117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>30</v>
       </c>
@@ -5218,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>30</v>
       </c>
@@ -5358,7 +5397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>30</v>
       </c>
@@ -5498,7 +5537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -5638,7 +5677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -5778,7 +5817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -5918,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>50</v>
       </c>
@@ -6058,7 +6097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>50</v>
       </c>
@@ -6198,7 +6237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>50</v>
       </c>
@@ -6338,7 +6377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>50</v>
       </c>
@@ -6478,7 +6517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>100</v>
       </c>
@@ -6618,7 +6657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -6758,7 +6797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -6898,7 +6937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>100</v>
       </c>
@@ -7038,7 +7077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>100</v>
       </c>
@@ -7178,7 +7217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>200</v>
       </c>
@@ -7318,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>200</v>
       </c>
@@ -7458,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>200</v>
       </c>
@@ -7598,7 +7637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>200</v>
       </c>
@@ -7738,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>200</v>
       </c>
@@ -7878,28 +7917,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="100" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="99" t="s">
         <v>104</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="100" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7926,124 +7965,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B1" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="B1" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112" t="s">
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112" t="s">
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112" t="s">
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112" t="s">
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112" t="s">
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112" t="s">
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112" t="s">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112" t="s">
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112" t="s">
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112" t="s">
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="113" t="s">
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -8183,7 +8222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>3</v>
       </c>
@@ -8323,7 +8362,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>10</v>
       </c>
@@ -8463,7 +8502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>30</v>
       </c>
@@ -8603,7 +8642,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>50</v>
       </c>
@@ -8743,7 +8782,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>100</v>
       </c>
@@ -8883,7 +8922,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" s="24">
         <v>200</v>
       </c>
@@ -9047,1235 +9086,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="40">
+        <v>3.8</v>
+      </c>
+      <c r="C3" s="41">
+        <v>6.8</v>
+      </c>
+      <c r="D3" s="41">
+        <v>4</v>
+      </c>
+      <c r="E3" s="41">
+        <v>3.4</v>
+      </c>
+      <c r="F3" s="41">
+        <v>2.4</v>
+      </c>
+      <c r="G3" s="42">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="44">
+        <v>2.6</v>
+      </c>
+      <c r="E4" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="44">
+        <v>-1.4</v>
+      </c>
+      <c r="G4" s="45">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="44">
+        <v>2</v>
+      </c>
+      <c r="C5" s="44">
+        <v>3</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="44">
+        <v>-0.6</v>
+      </c>
+      <c r="F5" s="44">
+        <v>-1.4</v>
+      </c>
+      <c r="G5" s="45">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6" s="44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="44">
+        <v>2</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="45">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="44">
+        <v>8</v>
+      </c>
+      <c r="C7" s="44">
+        <v>7</v>
+      </c>
+      <c r="D7" s="44">
+        <v>5.6</v>
+      </c>
+      <c r="E7" s="44">
+        <v>5</v>
+      </c>
+      <c r="F7" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G7" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C8" s="44">
+        <v>-0.4</v>
+      </c>
+      <c r="D8" s="44">
+        <v>-0.2</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="44">
+        <v>-0.4</v>
+      </c>
+      <c r="G8" s="45">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="44">
+        <v>-2.4</v>
+      </c>
+      <c r="C9" s="44">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="44">
+        <v>4</v>
+      </c>
+      <c r="E9" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F9" s="44">
+        <v>2.6</v>
+      </c>
+      <c r="G9" s="45">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="44">
+        <v>-0.2</v>
+      </c>
+      <c r="C10" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1.6</v>
+      </c>
+      <c r="F10" s="44">
+        <v>2</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="44">
+        <v>-0.2</v>
+      </c>
+      <c r="C11" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="44">
+        <v>-7</v>
+      </c>
+      <c r="C12" s="44">
+        <v>-2.6</v>
+      </c>
+      <c r="D12" s="44">
+        <v>-2.4</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="44">
+        <v>-3.4</v>
+      </c>
+      <c r="G12" s="45">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="46">
+        <v>-2.8</v>
+      </c>
+      <c r="C13" s="46">
+        <v>-0.2</v>
+      </c>
+      <c r="D13" s="46">
+        <v>5.6</v>
+      </c>
+      <c r="E13" s="46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F13" s="46">
+        <v>2.6</v>
+      </c>
+      <c r="G13" s="45">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="46">
+        <v>3.6</v>
+      </c>
+      <c r="C14" s="46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D14" s="46">
+        <v>3.6</v>
+      </c>
+      <c r="E14" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="F14" s="46">
+        <v>3.4</v>
+      </c>
+      <c r="G14" s="45">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="D15" s="46">
+        <v>5.4</v>
+      </c>
+      <c r="E15" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="F15" s="46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G15" s="45">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="46">
+        <v>-0.6</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="46">
+        <v>1.6</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46">
+        <v>3.8</v>
+      </c>
+      <c r="G16" s="47">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="49">
+        <v>3.6</v>
+      </c>
+      <c r="C17" s="49">
+        <v>6.6</v>
+      </c>
+      <c r="D17" s="49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E17" s="49">
+        <v>2.6</v>
+      </c>
+      <c r="F17" s="49">
+        <v>3</v>
+      </c>
+      <c r="G17" s="50">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41">
-        <v>3.8</v>
-      </c>
-      <c r="C2" s="42">
-        <v>6.8</v>
-      </c>
-      <c r="D2" s="42">
-        <v>4</v>
-      </c>
-      <c r="E2" s="42">
-        <v>3.4</v>
-      </c>
-      <c r="F2" s="42">
-        <v>2.4</v>
-      </c>
-      <c r="G2" s="43">
-        <v>2</v>
-      </c>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="45">
-        <v>0.6</v>
-      </c>
-      <c r="C3" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="45">
-        <v>2.6</v>
-      </c>
-      <c r="E3" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="45">
-        <v>-1.4</v>
-      </c>
-      <c r="G3" s="46">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="45">
-        <v>2</v>
-      </c>
-      <c r="C4" s="45">
-        <v>3</v>
-      </c>
-      <c r="D4" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="45">
-        <v>-0.6</v>
-      </c>
-      <c r="F4" s="45">
-        <v>-1.4</v>
-      </c>
-      <c r="G4" s="46">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="45">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C5" s="45">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D5" s="45">
-        <v>2</v>
-      </c>
-      <c r="E5" s="45">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="46">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="45">
-        <v>8</v>
-      </c>
-      <c r="C6" s="45">
-        <v>7</v>
-      </c>
-      <c r="D6" s="45">
-        <v>5.6</v>
-      </c>
-      <c r="E6" s="45">
-        <v>5</v>
-      </c>
-      <c r="F6" s="45">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G6" s="46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="47">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C7" s="45">
-        <v>-0.4</v>
-      </c>
-      <c r="D7" s="45">
-        <v>-0.2</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0.6</v>
-      </c>
-      <c r="F7" s="45">
-        <v>-0.4</v>
-      </c>
-      <c r="G7" s="46">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="45">
-        <v>-2.4</v>
-      </c>
-      <c r="C8" s="45">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="45">
-        <v>4</v>
-      </c>
-      <c r="E8" s="45">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F8" s="45">
-        <v>2.6</v>
-      </c>
-      <c r="G8" s="46">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="45">
-        <v>-0.2</v>
-      </c>
-      <c r="C9" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="45">
-        <v>1.4</v>
-      </c>
-      <c r="E9" s="45">
-        <v>1.6</v>
-      </c>
-      <c r="F9" s="45">
-        <v>2</v>
-      </c>
-      <c r="G9" s="46">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="45">
-        <v>-0.2</v>
-      </c>
-      <c r="C10" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="46">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="45">
-        <v>-7</v>
-      </c>
-      <c r="C11" s="45">
-        <v>-2.6</v>
-      </c>
-      <c r="D11" s="45">
-        <v>-2.4</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="F11" s="45">
-        <v>-3.4</v>
-      </c>
-      <c r="G11" s="46">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="47">
-        <v>-2.8</v>
-      </c>
-      <c r="C12" s="47">
-        <v>-0.2</v>
-      </c>
-      <c r="D12" s="47">
-        <v>5.6</v>
-      </c>
-      <c r="E12" s="47">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F12" s="47">
-        <v>2.6</v>
-      </c>
-      <c r="G12" s="46">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="C13" s="47">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D13" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="E13" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="F13" s="47">
-        <v>3.4</v>
-      </c>
-      <c r="G13" s="46">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="47">
-        <v>0</v>
-      </c>
-      <c r="C14" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="D14" s="47">
-        <v>5.4</v>
-      </c>
-      <c r="E14" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="F14" s="47">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G14" s="46">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="47">
-        <v>-0.6</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0.8</v>
-      </c>
-      <c r="D15" s="47">
-        <v>1.6</v>
-      </c>
-      <c r="E15" s="47">
-        <v>0</v>
-      </c>
-      <c r="F15" s="47">
-        <v>3.8</v>
-      </c>
-      <c r="G15" s="48">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="50">
-        <v>3.6</v>
-      </c>
-      <c r="C16" s="50">
-        <v>6.6</v>
-      </c>
-      <c r="D16" s="50">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E16" s="50">
-        <v>2.6</v>
-      </c>
-      <c r="F16" s="50">
-        <v>3</v>
-      </c>
-      <c r="G16" s="51">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="38">
-        <f>AVERAGE(B2:B16)</f>
+      <c r="B18" s="37">
+        <f>AVERAGE(B3:B17)</f>
         <v>0.85333333333333361</v>
       </c>
-      <c r="C17" s="38">
-        <f t="shared" ref="C17:G17" si="0">AVERAGE(C2:C16)</f>
+      <c r="C18" s="37">
+        <f t="shared" ref="C18:G18" si="0">AVERAGE(C3:C17)</f>
         <v>2.0533333333333332</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D18" s="37">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E18" s="37">
         <f t="shared" si="0"/>
         <v>2.08</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F18" s="37">
         <f t="shared" si="0"/>
         <v>1.52</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G18" s="38">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="32" t="s">
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E20" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="41">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="40">
         <v>3.2</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C21" s="41">
         <v>5.2</v>
       </c>
-      <c r="D20" s="42">
-        <v>5</v>
-      </c>
-      <c r="E20" s="42">
+      <c r="D21" s="41">
+        <v>5</v>
+      </c>
+      <c r="E21" s="41">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F20" s="42">
-        <v>3</v>
-      </c>
-      <c r="G20" s="43">
+      <c r="F21" s="41">
+        <v>3</v>
+      </c>
+      <c r="G21" s="42">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="44">
         <v>-1.8</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C22" s="44">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D22" s="44">
         <v>0.4</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E22" s="44">
         <v>0.8</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F22" s="44">
         <v>-0.8</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G22" s="45">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="44">
         <v>4.2</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C23" s="44">
         <v>3.4</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D23" s="44">
         <v>1.4</v>
       </c>
-      <c r="E22" s="45">
-        <v>1</v>
-      </c>
-      <c r="F22" s="45">
-        <v>0</v>
-      </c>
-      <c r="G22" s="46">
+      <c r="E23" s="44">
+        <v>1</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0</v>
+      </c>
+      <c r="G23" s="45">
         <v>-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="44">
         <v>1.8</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C24" s="44">
         <v>1.6</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D24" s="44">
         <v>1.4</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E24" s="44">
         <v>1.8</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F24" s="44">
         <v>1.4</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G24" s="45">
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="44">
         <v>7.4</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C25" s="44">
         <v>7.6</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D25" s="44">
         <v>6.2</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E25" s="44">
         <v>4.2</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F25" s="44">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G25" s="45">
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="47">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="46">
         <v>-2.4</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C26" s="44">
         <v>-0.4</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D26" s="44">
         <v>2.6</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E26" s="44">
         <v>1.2</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F26" s="44">
         <v>-0.6</v>
       </c>
-      <c r="G25" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="45">
+      <c r="G26" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="44">
         <v>-2.8</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C27" s="44">
         <v>0.8</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D27" s="44">
         <v>5.4</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E27" s="44">
         <v>3.2</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F27" s="44">
         <v>3.4</v>
       </c>
-      <c r="G26" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="45">
-        <v>1</v>
-      </c>
-      <c r="C27" s="45">
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="44">
+        <v>1</v>
+      </c>
+      <c r="C28" s="44">
         <v>1.8</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D28" s="44">
         <v>0.4</v>
       </c>
-      <c r="E27" s="45">
-        <v>1</v>
-      </c>
-      <c r="F27" s="45">
+      <c r="E28" s="44">
+        <v>1</v>
+      </c>
+      <c r="F28" s="44">
         <v>1.2</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G28" s="45">
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="44">
         <v>-0.2</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C29" s="44">
         <v>1.2</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D29" s="44">
         <v>0.2</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E29" s="44">
         <v>1.2</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F29" s="44">
         <v>0.2</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G29" s="45">
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="44">
         <v>-3.6</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C30" s="44">
         <v>-5.4</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D30" s="44">
         <v>-1</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E30" s="44">
         <v>0.2</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F30" s="44">
         <v>0.4</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G30" s="45">
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="47">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="46">
         <v>0.8</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C31" s="46">
         <v>5.8</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D31" s="46">
         <v>2.6</v>
       </c>
-      <c r="E30" s="47">
-        <v>0</v>
-      </c>
-      <c r="F30" s="47">
+      <c r="E31" s="46">
+        <v>0</v>
+      </c>
+      <c r="F31" s="46">
         <v>-0.2</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G31" s="45">
         <v>2.6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="47">
-        <v>1</v>
-      </c>
-      <c r="C31" s="47">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="46">
+        <v>1</v>
+      </c>
+      <c r="C32" s="46">
         <v>2.8</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D32" s="46">
         <v>2.6</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E32" s="46">
         <v>2.6</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F32" s="46">
         <v>2.4</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G32" s="45">
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="47">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="46">
         <v>1.8</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C33" s="46">
         <v>3.8</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D33" s="46">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E33" s="46">
         <v>5.6</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F33" s="46">
         <v>5.2</v>
       </c>
-      <c r="G32" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="47">
+      <c r="G33" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="46">
         <v>1.2</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C34" s="46">
         <v>3.6</v>
       </c>
-      <c r="D33" s="47">
-        <v>5</v>
-      </c>
-      <c r="E33" s="47">
+      <c r="D34" s="46">
+        <v>5</v>
+      </c>
+      <c r="E34" s="46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F34" s="46">
         <v>3.8</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G34" s="47">
         <v>2.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="50">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="49">
         <v>3.6</v>
       </c>
-      <c r="C34" s="50">
-        <v>5</v>
-      </c>
-      <c r="D34" s="50">
-        <v>5</v>
-      </c>
-      <c r="E34" s="50">
+      <c r="C35" s="49">
+        <v>5</v>
+      </c>
+      <c r="D35" s="49">
+        <v>5</v>
+      </c>
+      <c r="E35" s="49">
         <v>5.4</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F35" s="49">
         <v>3.2</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G35" s="50">
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="36">
-        <f>AVERAGE(B20:B34)</f>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="35">
+        <f>AVERAGE(B21:B35)</f>
         <v>1.0133333333333334</v>
       </c>
-      <c r="C35" s="36">
-        <f t="shared" ref="C35:G35" si="1">AVERAGE(C20:C34)</f>
+      <c r="C36" s="35">
+        <f t="shared" ref="C36:G36" si="1">AVERAGE(C21:C35)</f>
         <v>2.3066666666666666</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D36" s="35">
         <f t="shared" si="1"/>
         <v>2.7866666666666671</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E36" s="35">
         <f t="shared" si="1"/>
         <v>2.4799999999999995</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F36" s="35">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G36" s="36">
         <f t="shared" si="1"/>
         <v>1.0799999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="52">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="51">
         <v>0.3</v>
       </c>
-      <c r="C37" s="52">
-        <v>1</v>
-      </c>
-      <c r="D37" s="52">
-        <v>3</v>
-      </c>
-      <c r="E37" s="52">
-        <v>5</v>
-      </c>
-      <c r="F37" s="52">
+      <c r="C38" s="51">
+        <v>1</v>
+      </c>
+      <c r="D38" s="51">
+        <v>3</v>
+      </c>
+      <c r="E38" s="51">
+        <v>5</v>
+      </c>
+      <c r="F38" s="51">
         <v>10</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G38" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="91" t="s">
+    <row r="40" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C40" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="91" t="s">
+      <c r="D40" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E40" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="91" t="s">
+      <c r="F40" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="92" t="s">
+      <c r="G40" s="91" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="17">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="17">
         <v>-4.2</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C41" s="17">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <v>3.8</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>1.8</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>1.6</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G41" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="17">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="17">
         <v>-5.6</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C42" s="17">
         <v>-1.4</v>
       </c>
-      <c r="D41" s="17">
-        <v>2</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D42" s="17">
+        <v>2</v>
+      </c>
+      <c r="E42" s="17">
         <v>2.8</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>-0.2</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G42" s="18">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="17">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="17">
         <v>-3.4</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C43" s="17">
         <v>-2.4</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <v>0.8</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>-0.2</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>-1.6</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G43" s="18">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="17">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="17">
         <v>3.2</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C44" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <v>1.4</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>0.6</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>0.2</v>
       </c>
-      <c r="G43" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="17">
         <v>8</v>
       </c>
-      <c r="B44" s="17">
-        <v>8</v>
-      </c>
-      <c r="C44" s="17">
+      <c r="C45" s="17">
         <v>6.2</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <v>4.2</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>3.2</v>
       </c>
-      <c r="F44" s="17">
-        <v>3</v>
-      </c>
-      <c r="G44" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="17">
+      <c r="F45" s="17">
+        <v>3</v>
+      </c>
+      <c r="G45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="17">
         <v>1.4</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C46" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <v>0.4</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>0.4</v>
-      </c>
-      <c r="F45" s="17">
-        <v>-0.4</v>
-      </c>
-      <c r="G45" s="18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="17">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C46" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="D46" s="17">
-        <v>3.4</v>
-      </c>
-      <c r="E46" s="17">
-        <v>0.8</v>
       </c>
       <c r="F46" s="17">
         <v>-0.4</v>
       </c>
       <c r="G46" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="D47" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F47" s="17">
+        <v>-0.4</v>
+      </c>
+      <c r="G47" s="18">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="17">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="17">
         <v>-1.6</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C48" s="17">
         <v>0.8</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <v>1.2</v>
       </c>
-      <c r="E47" s="17">
-        <v>1</v>
-      </c>
-      <c r="F47" s="17">
+      <c r="E48" s="17">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17">
         <v>-0.2</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G48" s="18">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="17">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="17">
         <v>2.8</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C49" s="17">
         <v>1.8</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <v>0.8</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>0.8</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>0.2</v>
       </c>
-      <c r="G48" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="17">
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="17">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C50" s="17">
         <v>-3</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="17">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>-3</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>-1</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G50" s="18">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="17">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="17">
         <v>4.8</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C51" s="17">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D50" s="17">
-        <v>5</v>
-      </c>
-      <c r="E50" s="17">
+      <c r="D51" s="17">
+        <v>5</v>
+      </c>
+      <c r="E51" s="17">
         <v>1.2</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>1.4</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G51" s="18">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="17">
-        <v>3</v>
-      </c>
-      <c r="C51" s="17">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="17">
+        <v>3</v>
+      </c>
+      <c r="C52" s="17">
         <v>2.4</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <v>2.8</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>1.6</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>0.4</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G52" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="17">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="17">
         <v>3.4</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C53" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>3.2</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>0.8</v>
       </c>
-      <c r="G52" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="17">
+      <c r="G53" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C54" s="17">
         <v>2.6</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <v>1.8</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>0.6</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>0.2</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G54" s="18">
         <v>0.4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="17">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="17">
         <v>5.8</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C55" s="17">
         <v>7</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <v>4.2</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G55" s="18">
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="36">
-        <f>AVERAGE(B40:B54)</f>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="35">
+        <f>AVERAGE(B41:B55)</f>
         <v>1.32</v>
       </c>
-      <c r="C55" s="36">
-        <f t="shared" ref="C55:G55" si="2">AVERAGE(C40:C54)</f>
+      <c r="C56" s="35">
+        <f t="shared" ref="C56:G56" si="2">AVERAGE(C41:C55)</f>
         <v>2.2533333333333334</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D56" s="35">
         <f t="shared" si="2"/>
         <v>2.1066666666666669</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E56" s="35">
         <f t="shared" si="2"/>
         <v>1.2933333333333332</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F56" s="35">
         <f t="shared" si="2"/>
         <v>0.41333333333333333</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G56" s="36">
         <f t="shared" si="2"/>
         <v>-0.13333333333333333</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10283,103 +10327,105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F13:F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="39"/>
+      <c r="B1" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="112" t="s">
+      <c r="I1" s="115"/>
+      <c r="J1" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="112"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" s="113"/>
+    </row>
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="23">
         <v>3</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>-7</v>
       </c>
-      <c r="C3" s="93">
-        <v>2</v>
-      </c>
-      <c r="D3" s="97">
-        <v>1</v>
-      </c>
-      <c r="E3" s="93">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44">
-        <v>1</v>
-      </c>
-      <c r="G3" s="94">
+      <c r="C3" s="92">
+        <v>2</v>
+      </c>
+      <c r="D3" s="96">
+        <v>1</v>
+      </c>
+      <c r="E3" s="92">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43">
+        <v>1</v>
+      </c>
+      <c r="G3" s="93">
         <v>3</v>
       </c>
       <c r="H3" s="31">
@@ -10388,33 +10434,33 @@
       <c r="I3" s="31">
         <v>2</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="43">
         <v>-2</v>
       </c>
-      <c r="K3" s="94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="43">
         <v>-7</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="93">
         <v>3</v>
       </c>
       <c r="D4" s="31">
         <v>-1</v>
       </c>
-      <c r="E4" s="94">
-        <v>3</v>
-      </c>
-      <c r="F4" s="44">
+      <c r="E4" s="93">
+        <v>3</v>
+      </c>
+      <c r="F4" s="43">
         <v>6</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="93">
         <v>-1</v>
       </c>
       <c r="H4" s="31">
@@ -10423,33 +10469,33 @@
       <c r="I4" s="31">
         <v>5</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="43">
         <v>-2</v>
       </c>
-      <c r="K4" s="94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="43">
         <v>-4</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="93">
         <v>5</v>
       </c>
       <c r="D5" s="31">
         <v>-1</v>
       </c>
-      <c r="E5" s="94">
-        <v>3</v>
-      </c>
-      <c r="F5" s="44">
-        <v>2</v>
-      </c>
-      <c r="G5" s="94">
+      <c r="E5" s="93">
+        <v>3</v>
+      </c>
+      <c r="F5" s="43">
+        <v>2</v>
+      </c>
+      <c r="G5" s="93">
         <v>-3</v>
       </c>
       <c r="H5" s="31">
@@ -10458,33 +10504,33 @@
       <c r="I5" s="31">
         <v>-3</v>
       </c>
-      <c r="J5" s="44">
-        <v>5</v>
-      </c>
-      <c r="K5" s="94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="43">
+        <v>5</v>
+      </c>
+      <c r="K5" s="93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="44">
-        <v>2</v>
-      </c>
-      <c r="C6" s="94">
+      <c r="B6" s="43">
+        <v>2</v>
+      </c>
+      <c r="C6" s="93">
         <v>5</v>
       </c>
       <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="94">
-        <v>3</v>
-      </c>
-      <c r="F6" s="44">
+      <c r="E6" s="93">
+        <v>3</v>
+      </c>
+      <c r="F6" s="43">
         <v>-2</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="93">
         <v>-1</v>
       </c>
       <c r="H6" s="31">
@@ -10493,33 +10539,33 @@
       <c r="I6" s="31">
         <v>7</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="43">
         <v>-5</v>
       </c>
-      <c r="K6" s="94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>-9</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="93">
         <v>5</v>
       </c>
       <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="94">
-        <v>3</v>
-      </c>
-      <c r="F7" s="44">
+      <c r="E7" s="93">
+        <v>3</v>
+      </c>
+      <c r="F7" s="43">
         <v>-4</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="93">
         <v>-4</v>
       </c>
       <c r="H7" s="31">
@@ -10528,14 +10574,14 @@
       <c r="I7" s="31">
         <v>-3</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="43">
         <v>-2</v>
       </c>
-      <c r="K7" s="94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>30</v>
       </c>
@@ -10545,32 +10591,32 @@
       <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="97">
-        <v>1</v>
-      </c>
-      <c r="E8" s="93">
-        <v>2</v>
-      </c>
-      <c r="F8" s="40">
-        <v>2</v>
-      </c>
-      <c r="G8" s="93">
-        <v>4</v>
-      </c>
-      <c r="H8" s="97">
-        <v>4</v>
-      </c>
-      <c r="I8" s="97">
-        <v>5</v>
-      </c>
-      <c r="J8" s="40">
+      <c r="D8" s="96">
+        <v>1</v>
+      </c>
+      <c r="E8" s="92">
+        <v>2</v>
+      </c>
+      <c r="F8" s="39">
+        <v>2</v>
+      </c>
+      <c r="G8" s="92">
+        <v>4</v>
+      </c>
+      <c r="H8" s="96">
+        <v>4</v>
+      </c>
+      <c r="I8" s="96">
+        <v>5</v>
+      </c>
+      <c r="J8" s="39">
         <v>-1</v>
       </c>
-      <c r="K8" s="93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>30</v>
       </c>
@@ -10583,13 +10629,13 @@
       <c r="D9" s="31">
         <v>-2</v>
       </c>
-      <c r="E9" s="94">
-        <v>3</v>
-      </c>
-      <c r="F9" s="44">
-        <v>2</v>
-      </c>
-      <c r="G9" s="94">
+      <c r="E9" s="93">
+        <v>3</v>
+      </c>
+      <c r="F9" s="43">
+        <v>2</v>
+      </c>
+      <c r="G9" s="93">
         <v>5</v>
       </c>
       <c r="H9" s="31">
@@ -10598,14 +10644,14 @@
       <c r="I9" s="31">
         <v>4</v>
       </c>
-      <c r="J9" s="44">
-        <v>2</v>
-      </c>
-      <c r="K9" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="43">
+        <v>2</v>
+      </c>
+      <c r="K9" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>30</v>
       </c>
@@ -10618,13 +10664,13 @@
       <c r="D10" s="31">
         <v>-3</v>
       </c>
-      <c r="E10" s="94">
-        <v>2</v>
-      </c>
-      <c r="F10" s="44">
+      <c r="E10" s="93">
+        <v>2</v>
+      </c>
+      <c r="F10" s="43">
         <v>-1</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="93">
         <v>-2</v>
       </c>
       <c r="H10" s="31">
@@ -10633,14 +10679,14 @@
       <c r="I10" s="31">
         <v>4</v>
       </c>
-      <c r="J10" s="44">
-        <v>5</v>
-      </c>
-      <c r="K10" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="43">
+        <v>5</v>
+      </c>
+      <c r="K10" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>30</v>
       </c>
@@ -10653,13 +10699,13 @@
       <c r="D11" s="31">
         <v>2</v>
       </c>
-      <c r="E11" s="94">
-        <v>1</v>
-      </c>
-      <c r="F11" s="44">
-        <v>5</v>
-      </c>
-      <c r="G11" s="94">
+      <c r="E11" s="93">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43">
+        <v>5</v>
+      </c>
+      <c r="G11" s="93">
         <v>-1</v>
       </c>
       <c r="H11" s="31">
@@ -10668,14 +10714,14 @@
       <c r="I11" s="31">
         <v>5</v>
       </c>
-      <c r="J11" s="44">
-        <v>3</v>
-      </c>
-      <c r="K11" s="94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="43">
+        <v>3</v>
+      </c>
+      <c r="K11" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="24">
         <v>30</v>
       </c>
@@ -10685,32 +10731,32 @@
       <c r="C12" s="14">
         <v>3</v>
       </c>
-      <c r="D12" s="96">
-        <v>1</v>
-      </c>
-      <c r="E12" s="95">
-        <v>1</v>
-      </c>
-      <c r="F12" s="49">
-        <v>1</v>
-      </c>
-      <c r="G12" s="95">
-        <v>1</v>
-      </c>
-      <c r="H12" s="96">
-        <v>4</v>
-      </c>
-      <c r="I12" s="96">
-        <v>5</v>
-      </c>
-      <c r="J12" s="49">
-        <v>5</v>
-      </c>
-      <c r="K12" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="95">
+        <v>1</v>
+      </c>
+      <c r="E12" s="94">
+        <v>1</v>
+      </c>
+      <c r="F12" s="48">
+        <v>1</v>
+      </c>
+      <c r="G12" s="94">
+        <v>1</v>
+      </c>
+      <c r="H12" s="95">
+        <v>4</v>
+      </c>
+      <c r="I12" s="95">
+        <v>5</v>
+      </c>
+      <c r="J12" s="48">
+        <v>5</v>
+      </c>
+      <c r="K12" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>300</v>
       </c>
@@ -10723,13 +10769,13 @@
       <c r="D13" s="31">
         <v>3</v>
       </c>
-      <c r="E13" s="94">
-        <v>0</v>
-      </c>
-      <c r="F13" s="44">
-        <v>4</v>
-      </c>
-      <c r="G13" s="94">
+      <c r="E13" s="93">
+        <v>0</v>
+      </c>
+      <c r="F13" s="43">
+        <v>4</v>
+      </c>
+      <c r="G13" s="93">
         <v>2</v>
       </c>
       <c r="H13" s="31">
@@ -10738,14 +10784,14 @@
       <c r="I13" s="31">
         <v>0</v>
       </c>
-      <c r="J13" s="44">
-        <v>3</v>
-      </c>
-      <c r="K13" s="94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="43">
+        <v>3</v>
+      </c>
+      <c r="K13" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>300</v>
       </c>
@@ -10758,13 +10804,13 @@
       <c r="D14" s="31">
         <v>2</v>
       </c>
-      <c r="E14" s="94">
-        <v>0</v>
-      </c>
-      <c r="F14" s="44">
-        <v>4</v>
-      </c>
-      <c r="G14" s="94">
+      <c r="E14" s="93">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43">
+        <v>4</v>
+      </c>
+      <c r="G14" s="93">
         <v>1</v>
       </c>
       <c r="H14" s="31">
@@ -10773,14 +10819,14 @@
       <c r="I14" s="31">
         <v>2</v>
       </c>
-      <c r="J14" s="44">
-        <v>3</v>
-      </c>
-      <c r="K14" s="94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="43">
+        <v>3</v>
+      </c>
+      <c r="K14" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>300</v>
       </c>
@@ -10793,13 +10839,13 @@
       <c r="D15" s="31">
         <v>1</v>
       </c>
-      <c r="E15" s="94">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44">
+      <c r="E15" s="93">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43">
         <v>-3</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="93">
         <v>1</v>
       </c>
       <c r="H15" s="31">
@@ -10808,14 +10854,14 @@
       <c r="I15" s="31">
         <v>1</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="43">
         <v>7</v>
       </c>
-      <c r="K15" s="94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>300</v>
       </c>
@@ -10828,13 +10874,13 @@
       <c r="D16" s="31">
         <v>3</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="93">
         <v>-1</v>
       </c>
-      <c r="F16" s="44">
-        <v>3</v>
-      </c>
-      <c r="G16" s="94">
+      <c r="F16" s="43">
+        <v>3</v>
+      </c>
+      <c r="G16" s="93">
         <v>0</v>
       </c>
       <c r="H16" s="31">
@@ -10843,14 +10889,14 @@
       <c r="I16" s="31">
         <v>-1</v>
       </c>
-      <c r="J16" s="44">
-        <v>4</v>
-      </c>
-      <c r="K16" s="94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="43">
+        <v>4</v>
+      </c>
+      <c r="K16" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="24">
         <v>300</v>
       </c>
@@ -10860,57 +10906,57 @@
       <c r="C17" s="14">
         <v>0</v>
       </c>
-      <c r="D17" s="96">
-        <v>3</v>
-      </c>
-      <c r="E17" s="95">
-        <v>1</v>
-      </c>
-      <c r="F17" s="49">
-        <v>2</v>
-      </c>
-      <c r="G17" s="95">
-        <v>0</v>
-      </c>
-      <c r="H17" s="96">
-        <v>2</v>
-      </c>
-      <c r="I17" s="96">
-        <v>1</v>
-      </c>
-      <c r="J17" s="49">
+      <c r="D17" s="95">
+        <v>3</v>
+      </c>
+      <c r="E17" s="94">
+        <v>1</v>
+      </c>
+      <c r="F17" s="48">
+        <v>2</v>
+      </c>
+      <c r="G17" s="94">
+        <v>0</v>
+      </c>
+      <c r="H17" s="95">
+        <v>2</v>
+      </c>
+      <c r="I17" s="95">
+        <v>1</v>
+      </c>
+      <c r="J17" s="48">
         <v>7</v>
       </c>
-      <c r="K17" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="121"/>
+      <c r="K17" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C28" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10925,76 +10971,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="114" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="39"/>
+      <c r="B1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="116"/>
+      <c r="F1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="115" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="114" t="s">
+      <c r="I1" s="116"/>
+      <c r="J1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="113"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="114"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="103">
         <v>-5</v>
       </c>
       <c r="C3" s="18">
@@ -11006,7 +11054,7 @@
       <c r="E3" s="17">
         <v>3</v>
       </c>
-      <c r="F3" s="104">
+      <c r="F3" s="103">
         <v>0.6</v>
       </c>
       <c r="G3" s="18">
@@ -11018,18 +11066,18 @@
       <c r="I3" s="17">
         <v>1.6</v>
       </c>
-      <c r="J3" s="104">
+      <c r="J3" s="103">
         <v>-1.2</v>
       </c>
       <c r="K3" s="18">
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>30</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="103">
         <v>5</v>
       </c>
       <c r="C4" s="18">
@@ -11041,7 +11089,7 @@
       <c r="E4" s="17">
         <v>1.8</v>
       </c>
-      <c r="F4" s="104">
+      <c r="F4" s="103">
         <v>1.8</v>
       </c>
       <c r="G4" s="18">
@@ -11053,18 +11101,18 @@
       <c r="I4" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="103">
         <v>2.8</v>
       </c>
       <c r="K4" s="18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>300</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="104">
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="20">
@@ -11076,7 +11124,7 @@
       <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="104">
         <v>2</v>
       </c>
       <c r="G5" s="20">
@@ -11088,10 +11136,112 @@
       <c r="I5" s="19">
         <v>0.6</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="104">
         <v>4.8</v>
       </c>
       <c r="K5" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="103">
+        <v>-5</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="17">
+        <v>-5.4</v>
+      </c>
+      <c r="F7" s="103">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="103">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17">
+        <v>-0.2</v>
+      </c>
+      <c r="D8" s="103">
+        <v>1.8</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="F8" s="103">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="104">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="D9" s="104">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9" s="104">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="18">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18">
+        <v>-1.2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="F11" s="18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="20">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -11108,36 +11258,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="92" t="s">
-        <v>108</v>
+      <c r="D1" s="91" t="s">
+        <v>105</v>
       </c>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17">
@@ -11151,8 +11301,8 @@
       </c>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="17">
@@ -11166,8 +11316,8 @@
       </c>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="17">
@@ -11181,8 +11331,8 @@
       </c>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="17">
@@ -11196,8 +11346,8 @@
       </c>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="17">
@@ -11211,48 +11361,48 @@
       </c>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="38">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="37">
         <f>AVERAGE(B2:B6)</f>
         <v>-2.16</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <f t="shared" ref="C7:D7" si="0">AVERAGE(C2:C6)</f>
         <v>2.6</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="110" t="s">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="111" t="s">
-        <v>108</v>
+      <c r="D9" s="110" t="s">
+        <v>105</v>
       </c>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="17">
@@ -11266,8 +11416,8 @@
       </c>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="17">
@@ -11281,8 +11431,8 @@
       </c>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="17">
@@ -11296,8 +11446,8 @@
       </c>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="17">
@@ -11311,8 +11461,8 @@
       </c>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="17">
@@ -11326,49 +11476,49 @@
       </c>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="38">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="37">
         <f>AVERAGE(B10:B14)</f>
         <v>2.2399999999999998</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <f t="shared" ref="C15" si="1">AVERAGE(C10:C14)</f>
         <v>2.36</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <f t="shared" ref="D15" si="2">AVERAGE(D10:D14)</f>
         <v>0.76</v>
       </c>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="52">
-        <v>3</v>
-      </c>
-      <c r="C17" s="52">
+        <v>27</v>
+      </c>
+      <c r="B17" s="51">
+        <v>3</v>
+      </c>
+      <c r="C17" s="51">
         <v>30</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="51">
         <v>300</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -11382,40 +11532,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -11425,16 +11575,16 @@
         <v>167.34701903608899</v>
       </c>
       <c r="D2" s="30"/>
-      <c r="F2" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="F2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="80" t="s">
+      <c r="H2" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="26" t="s">
@@ -11443,18 +11593,18 @@
       <c r="M2" s="27">
         <v>141.034216809204</v>
       </c>
-      <c r="O2" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="53" t="s">
+      <c r="O2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
+      <c r="Q2" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="117"/>
       <c r="B3" s="26" t="s">
         <v>19</v>
       </c>
@@ -11468,11 +11618,11 @@
       <c r="G3" s="29">
         <v>-35.181824382454202</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="54">
         <f>F3-G3</f>
         <v>202.5288434185432</v>
       </c>
-      <c r="K3" s="80"/>
+      <c r="K3" s="79"/>
       <c r="L3" s="26" t="s">
         <v>19</v>
       </c>
@@ -11485,13 +11635,13 @@
       <c r="P3" s="27">
         <v>192.94405371778601</v>
       </c>
-      <c r="Q3" s="55">
+      <c r="Q3" s="54">
         <f>O3-P3</f>
         <v>-51.909836908582008</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="117" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -11507,11 +11657,11 @@
       <c r="G4" s="27">
         <v>103.559993405583</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="54">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
         <v>-296.37964379715697</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="79" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="26" t="s">
@@ -11526,13 +11676,13 @@
       <c r="P4" s="27">
         <v>162.56466645456601</v>
       </c>
-      <c r="Q4" s="55">
+      <c r="Q4" s="54">
         <f t="shared" ref="Q4:Q12" si="1">O4-P4</f>
         <v>-16.787752939325998</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="117"/>
       <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
@@ -11546,11 +11696,11 @@
       <c r="G5" s="27">
         <v>192.94405371778601</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="54">
         <f t="shared" si="0"/>
         <v>-51.909836908582008</v>
       </c>
-      <c r="K5" s="80"/>
+      <c r="K5" s="79"/>
       <c r="L5" s="26" t="s">
         <v>19</v>
       </c>
@@ -11563,13 +11713,13 @@
       <c r="P5" s="27">
         <v>130.636567202875</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="54">
         <f t="shared" si="1"/>
         <v>140.98577050404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="117" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -11585,11 +11735,11 @@
       <c r="G6" s="29">
         <v>-15.9500413297822</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="54">
         <f t="shared" si="0"/>
         <v>202.28294750113821</v>
       </c>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="79" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="26" t="s">
@@ -11604,13 +11754,13 @@
       <c r="P6" s="27">
         <v>101.92566479893399</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="54">
         <f t="shared" si="1"/>
         <v>-5.3980582428834936</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="117"/>
       <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
@@ -11624,11 +11774,11 @@
       <c r="G7" s="27">
         <v>162.56466645456601</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="54">
         <f t="shared" si="0"/>
         <v>-16.787752939325998</v>
       </c>
-      <c r="K7" s="80"/>
+      <c r="K7" s="79"/>
       <c r="L7" s="26" t="s">
         <v>19</v>
       </c>
@@ -11641,13 +11791,13 @@
       <c r="P7" s="27">
         <v>83.980751539740496</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7" s="54">
         <f t="shared" si="1"/>
         <v>43.2443003435165</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="117" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -11663,11 +11813,11 @@
       <c r="G8" s="27">
         <v>130.636567202875</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="54">
         <f t="shared" si="0"/>
         <v>140.98577050404</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="79" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="26" t="s">
@@ -11682,13 +11832,13 @@
       <c r="P8" s="27">
         <v>144.75613593385901</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q8" s="54">
         <f t="shared" si="1"/>
         <v>-29.154999944890008</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="117"/>
       <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
@@ -11702,11 +11852,11 @@
       <c r="G9" s="27">
         <v>101.92566479893399</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="54">
         <f t="shared" si="0"/>
         <v>-5.3980582428834936</v>
       </c>
-      <c r="K9" s="80"/>
+      <c r="K9" s="79"/>
       <c r="L9" s="26" t="s">
         <v>19</v>
       </c>
@@ -11719,13 +11869,13 @@
       <c r="P9" s="27">
         <v>108.46840585063801</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="54">
         <f t="shared" si="1"/>
         <v>12.354248511615992</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="116" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="117" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -11741,11 +11891,11 @@
       <c r="G10" s="29">
         <v>-44.557372349851697</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="54">
         <f t="shared" si="0"/>
         <v>152.3256045569367</v>
       </c>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="79" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="26" t="s">
@@ -11760,13 +11910,13 @@
       <c r="P10" s="27">
         <v>102.244328857128</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="54">
         <f t="shared" si="1"/>
         <v>23.457122031931007</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="117"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
@@ -11780,11 +11930,11 @@
       <c r="G11" s="27">
         <v>83.980751539740496</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="54">
         <f t="shared" si="0"/>
         <v>43.2443003435165</v>
       </c>
-      <c r="K11" s="80"/>
+      <c r="K11" s="79"/>
       <c r="L11" s="26" t="s">
         <v>19</v>
       </c>
@@ -11797,13 +11947,13 @@
       <c r="P11" s="27">
         <v>100.60872800380299</v>
       </c>
-      <c r="Q11" s="55">
+      <c r="Q11" s="54">
         <f t="shared" si="1"/>
         <v>8.5265087852170041</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="116" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="117" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -11819,11 +11969,11 @@
       <c r="G12" s="27">
         <v>144.75613593385901</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="54">
         <f t="shared" si="0"/>
         <v>-29.154999944890008</v>
       </c>
-      <c r="K12" s="80" t="s">
+      <c r="K12" s="79" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="26" t="s">
@@ -11838,13 +11988,13 @@
       <c r="P12" s="27">
         <v>29.200115270873599</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="54">
         <f t="shared" si="1"/>
         <v>165.93498341246439</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="117"/>
       <c r="B13" s="26" t="s">
         <v>19</v>
       </c>
@@ -11858,11 +12008,11 @@
       <c r="G13" s="27">
         <v>108.46840585063801</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="54">
         <f t="shared" si="0"/>
         <v>12.354248511615992</v>
       </c>
-      <c r="K13" s="80"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="26" t="s">
         <v>19</v>
       </c>
@@ -11870,8 +12020,8 @@
         <v>144.75613593385901</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="116" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="117" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -11887,11 +12037,11 @@
       <c r="G14" s="27">
         <v>76.945796094475796</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="54">
         <f t="shared" si="0"/>
         <v>-129.11329855832369</v>
       </c>
-      <c r="K14" s="80" t="s">
+      <c r="K14" s="79" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="26" t="s">
@@ -11901,8 +12051,8 @@
         <v>120.822654362254</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="117"/>
       <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
@@ -11916,11 +12066,11 @@
       <c r="G15" s="27">
         <v>102.244328857128</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="54">
         <f t="shared" si="0"/>
         <v>23.457122031931007</v>
       </c>
-      <c r="K15" s="80"/>
+      <c r="K15" s="79"/>
       <c r="L15" s="26" t="s">
         <v>19</v>
       </c>
@@ -11928,8 +12078,8 @@
         <v>108.46840585063801</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="116" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="117" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -11945,11 +12095,11 @@
       <c r="G16" s="27">
         <v>100.60872800380299</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="54">
         <f t="shared" si="0"/>
         <v>8.5265087852170041</v>
       </c>
-      <c r="K16" s="80" t="s">
+      <c r="K16" s="79" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="26" t="s">
@@ -11959,8 +12109,8 @@
         <v>125.701450889059</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="117"/>
       <c r="B17" s="26" t="s">
         <v>19</v>
       </c>
@@ -11974,11 +12124,11 @@
       <c r="G17" s="27">
         <v>29.200115270873599</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="54">
         <f t="shared" si="0"/>
         <v>165.93498341246439</v>
       </c>
-      <c r="K17" s="80"/>
+      <c r="K17" s="79"/>
       <c r="L17" s="26" t="s">
         <v>19</v>
       </c>
@@ -11986,8 +12136,8 @@
         <v>102.244328857128</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="116" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="117" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -11997,7 +12147,7 @@
         <v>127.225051883257</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="K18" s="80" t="s">
+      <c r="K18" s="79" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="26" t="s">
@@ -12007,8 +12157,8 @@
         <v>109.13523678902</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="117"/>
       <c r="B19" s="26" t="s">
         <v>19</v>
       </c>
@@ -12016,7 +12166,7 @@
         <v>83.980751539740496</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="K19" s="80"/>
+      <c r="K19" s="79"/>
       <c r="L19" s="26" t="s">
         <v>19</v>
       </c>
@@ -12024,8 +12174,8 @@
         <v>100.60872800380299</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="116" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="117" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -12035,7 +12185,7 @@
         <v>115.60113598896901</v>
       </c>
       <c r="D20" s="30"/>
-      <c r="K20" s="80" t="s">
+      <c r="K20" s="79" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="26" t="s">
@@ -12045,8 +12195,8 @@
         <v>195.13509868333799</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="117"/>
       <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
@@ -12054,7 +12204,7 @@
         <v>144.75613593385901</v>
       </c>
       <c r="D21" s="30"/>
-      <c r="K21" s="80"/>
+      <c r="K21" s="79"/>
       <c r="L21" s="26" t="s">
         <v>19</v>
       </c>
@@ -12062,8 +12212,8 @@
         <v>29.200115270873599</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="117" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -12074,8 +12224,8 @@
       </c>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="117"/>
       <c r="B23" s="26" t="s">
         <v>19</v>
       </c>
@@ -12083,8 +12233,8 @@
         <v>108.46840585063801</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="116" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="117" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -12094,8 +12244,8 @@
         <v>-52.167502463847903</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="117"/>
       <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
@@ -12103,8 +12253,8 @@
         <v>76.945796094475796</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="117" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -12114,8 +12264,8 @@
         <v>125.701450889059</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="117"/>
       <c r="B27" s="26" t="s">
         <v>19</v>
       </c>
@@ -12123,8 +12273,8 @@
         <v>102.244328857128</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="116" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="117" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -12134,8 +12284,8 @@
         <v>109.13523678902</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="117"/>
       <c r="B29" s="26" t="s">
         <v>19</v>
       </c>
@@ -12143,8 +12293,8 @@
         <v>100.60872800380299</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="116" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="117" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -12154,8 +12304,8 @@
         <v>195.13509868333799</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="117"/>
       <c r="B31" s="26" t="s">
         <v>19</v>
       </c>
@@ -12189,236 +12339,236 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" customWidth="1"/>
+    <col min="9" max="9" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
       </c>
       <c r="B17">
         <v>0.27939999999999998</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>0.27860000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D21" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="118.5" x14ac:dyDescent="0.35">
+      <c r="D24" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="56" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="174" x14ac:dyDescent="0.25">
-      <c r="D24" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="57" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -12428,869 +12578,869 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="8.7109375" style="81"/>
-    <col min="15" max="15" width="8.7109375" style="88"/>
+    <col min="7" max="7" width="8.7265625" style="80"/>
+    <col min="15" max="15" width="8.7265625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+    </row>
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="A3" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="K3" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="L3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="M3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="64">
+      <c r="N3" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="63">
         <v>1.60666666666667</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="64">
         <v>0.305505046330389</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="64">
         <v>5.2590511546874197</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="64">
         <v>1.44800607948525E-7</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="76">
         <v>2.1720091192278801E-6</v>
       </c>
-      <c r="G4" s="87" t="str">
+      <c r="G4" s="86" t="str">
         <f>IF(F4&lt;=0.05,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="64">
+      <c r="H4" s="83"/>
+      <c r="I4" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="63">
         <v>1.7066666666666701</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="64">
         <v>0.305505046330389</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="64">
         <v>5.5863779900414103</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="64">
         <v>2.3185430464423E-8</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="76">
         <v>3.47781456966345E-7</v>
       </c>
-      <c r="O4" s="89" t="str">
+      <c r="O4" s="88" t="str">
         <f>IF(N4&lt;=0.05,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="P4" s="79"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="67">
+      <c r="P4" s="78"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="66">
         <v>1.41333333333333</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="67">
         <v>4.6262192730030396</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="67">
         <v>3.7240103833990901E-6</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="77">
         <v>5.5860155750986399E-5</v>
       </c>
-      <c r="G5" s="87" t="str">
+      <c r="G5" s="86" t="str">
         <f t="shared" ref="G5:G18" si="0">IF(F5&lt;=0.05,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="67">
+      <c r="H5" s="83"/>
+      <c r="I5" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="66">
         <v>1.5533333333333299</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="67">
         <v>5.0844768424986198</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="67">
         <v>3.6864074015596802E-7</v>
       </c>
-      <c r="N5" s="78">
+      <c r="N5" s="77">
         <v>5.5296111023395198E-6</v>
       </c>
-      <c r="O5" s="89" t="str">
+      <c r="O5" s="88" t="str">
         <f t="shared" ref="O5:O18" si="1">IF(N5&lt;=0.05,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="P5" s="79"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="67">
+      <c r="P5" s="78"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="66">
         <v>1.4</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="67">
         <v>4.5825756949558398</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="67">
         <v>4.5928337117917601E-6</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="77">
         <v>6.8892505676876298E-5</v>
       </c>
-      <c r="G6" s="87" t="str">
+      <c r="G6" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="67">
+      <c r="H6" s="83"/>
+      <c r="I6" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="66">
         <v>1.4933333333333301</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="67">
         <v>4.8880807412862302</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="67">
         <v>1.01823771547771E-6</v>
       </c>
-      <c r="N6" s="78">
+      <c r="N6" s="77">
         <v>1.5273565732165701E-5</v>
       </c>
-      <c r="O6" s="89" t="str">
+      <c r="O6" s="88" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P6" s="79"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="67">
+      <c r="P6" s="78"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="66">
         <v>0.84666666666666701</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="67">
         <v>2.7713672059971</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="67">
         <v>5.58214360906506E-3</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="68">
         <v>8.37321541359759E-2</v>
       </c>
-      <c r="G7" s="87" t="str">
+      <c r="G7" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="67">
+      <c r="H7" s="83"/>
+      <c r="I7" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="66">
         <v>-1.34</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="67">
         <v>-4.3861795937434502</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="67">
         <v>1.15358885048877E-5</v>
       </c>
-      <c r="N7" s="78">
+      <c r="N7" s="77">
         <v>1.73038327573316E-4</v>
       </c>
-      <c r="O7" s="89" t="str">
+      <c r="O7" s="88" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P7" s="79"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="67">
+      <c r="P7" s="78"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="66">
         <v>-0.82666666666666699</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="67">
         <v>-2.7059018389263101</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <v>6.8119178122669792E-3</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="68">
         <v>0.102178767184005</v>
       </c>
-      <c r="G8" s="87" t="str">
+      <c r="G8" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="67">
+      <c r="H8" s="83"/>
+      <c r="I8" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="66">
         <v>-1.1866666666666701</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="67">
         <v>-3.8842784462006601</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="67">
         <v>1.02634232862275E-4</v>
       </c>
-      <c r="N8" s="78">
+      <c r="N8" s="77">
         <v>1.5395134929341299E-3</v>
       </c>
-      <c r="O8" s="89" t="str">
+      <c r="O8" s="88" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P8" s="79"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="67">
+      <c r="P8" s="78"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="66">
         <v>0.78</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="67">
         <v>2.55314931576111</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="67">
         <v>1.0675372014664401E-2</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="68">
         <v>0.16013058021996601</v>
       </c>
-      <c r="G9" s="87" t="str">
+      <c r="G9" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="67">
+      <c r="H9" s="83"/>
+      <c r="I9" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="66">
         <v>-1.12666666666667</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="67">
         <v>-3.6878823449882701</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="67">
         <v>2.2612815871303498E-4</v>
       </c>
-      <c r="N9" s="78">
+      <c r="N9" s="77">
         <v>3.3919223806955202E-3</v>
       </c>
-      <c r="O9" s="89" t="str">
+      <c r="O9" s="88" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P9" s="79"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="67">
+      <c r="P9" s="78"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="66">
         <v>0.76</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="67">
         <v>2.48768394869031</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="67">
         <v>1.2857794082371801E-2</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="68">
         <v>0.19286691123557601</v>
       </c>
-      <c r="G10" s="87" t="str">
+      <c r="G10" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="67">
+      <c r="H10" s="83"/>
+      <c r="I10" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="66">
         <v>0.96</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="67">
         <v>3.1423376193982899</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="67">
         <v>1.6760465035297E-3</v>
       </c>
-      <c r="N10" s="78">
+      <c r="N10" s="77">
         <v>2.5140697552945599E-2</v>
       </c>
-      <c r="O10" s="89" t="str">
+      <c r="O10" s="88" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P10" s="79"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="67">
+      <c r="P10" s="78"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="66">
         <v>0.65333333333333299</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="67">
         <v>2.1385353243127301</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="67">
         <v>3.2473320326069602E-2</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="68">
         <v>0.48709980489104499</v>
       </c>
-      <c r="G11" s="87" t="str">
+      <c r="G11" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="67">
+      <c r="H11" s="83"/>
+      <c r="I11" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="66">
         <v>0.74666666666666703</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="67">
         <v>2.4440403706431102</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="67">
         <v>1.45238012358178E-2</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="68">
         <v>0.217857018537266</v>
       </c>
-      <c r="O11" s="89" t="str">
+      <c r="O11" s="88" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P11" s="79"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="67">
+      <c r="P11" s="78"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="66">
         <v>0.64</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="67">
         <v>2.0948917462655299</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="67">
         <v>3.61806167443217E-2</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="68">
         <v>0.54270925116482605</v>
       </c>
-      <c r="G12" s="87" t="str">
+      <c r="G12" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="67">
+      <c r="H12" s="83"/>
+      <c r="I12" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="66">
         <v>-0.59333333333333305</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="67">
         <v>-1.94213922310033</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="67">
         <v>5.2120248298436402E-2</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="68">
         <v>0.781803724476546</v>
       </c>
-      <c r="O12" s="89" t="str">
+      <c r="O12" s="88" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P12" s="79"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="67">
+      <c r="P12" s="78"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="66">
         <v>-0.63333333333333297</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="67">
         <v>-2.07306995724193</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <v>3.8165769458829997E-2</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="68">
         <v>0.57248654188244996</v>
       </c>
-      <c r="G13" s="87" t="str">
+      <c r="G13" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="67">
+      <c r="H13" s="83"/>
+      <c r="I13" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="66">
         <v>0.59333333333333305</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="67">
         <v>1.94213922310033</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="67">
         <v>5.2120248298436402E-2</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="68">
         <v>0.781803724476546</v>
       </c>
-      <c r="O13" s="89" t="str">
+      <c r="O13" s="88" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P13" s="79"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="67">
+      <c r="P13" s="78"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="66">
         <v>-0.62</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="67">
         <v>-2.0294263791947298</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="67">
         <v>4.2414880537900101E-2</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="68">
         <v>0.63622320806850197</v>
       </c>
-      <c r="G14" s="87" t="str">
+      <c r="G14" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="67">
+      <c r="H14" s="83"/>
+      <c r="I14" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="66">
         <v>0.36666666666666697</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="67">
         <v>1.2001983962979601</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="67">
         <v>0.23006229802639699</v>
       </c>
-      <c r="N14" s="69">
-        <v>1</v>
-      </c>
-      <c r="O14" s="89" t="str">
+      <c r="N14" s="68">
+        <v>1</v>
+      </c>
+      <c r="O14" s="88" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P14" s="79"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="67">
+      <c r="P14" s="78"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="66">
         <v>0.02</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="67">
         <v>6.5465367070797698E-2</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="67">
         <v>0.94780348023542005</v>
       </c>
-      <c r="F15" s="69">
-        <v>1</v>
-      </c>
-      <c r="G15" s="87" t="str">
+      <c r="F15" s="68">
+        <v>1</v>
+      </c>
+      <c r="G15" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="67">
+      <c r="H15" s="83"/>
+      <c r="I15" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="66">
         <v>0.53333333333333299</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="67">
         <v>1.74574312188794</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="67">
         <v>8.0855598370052295E-2</v>
       </c>
-      <c r="N15" s="69">
-        <v>1</v>
-      </c>
-      <c r="O15" s="89" t="str">
+      <c r="N15" s="68">
+        <v>1</v>
+      </c>
+      <c r="O15" s="88" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P15" s="79"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="67">
+      <c r="P15" s="78"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="66">
         <v>1.3333333333333299E-2</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="67">
         <v>4.3643578047198497E-2</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <v>0.96518851451383803</v>
       </c>
-      <c r="F16" s="69">
-        <v>1</v>
-      </c>
-      <c r="G16" s="87" t="str">
+      <c r="F16" s="68">
+        <v>1</v>
+      </c>
+      <c r="G16" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="67">
+      <c r="H16" s="83"/>
+      <c r="I16" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="66">
         <v>0.06</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="67">
         <v>0.19639610121239301</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="67">
         <v>0.84430014762203198</v>
       </c>
-      <c r="N16" s="69">
-        <v>1</v>
-      </c>
-      <c r="O16" s="89" t="str">
+      <c r="N16" s="68">
+        <v>1</v>
+      </c>
+      <c r="O16" s="88" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P16" s="79"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="67">
+      <c r="P16" s="78"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="66">
         <v>0.206666666666667</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="67">
         <v>0.67647545973157597</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="67">
         <v>0.49873882165031302</v>
       </c>
-      <c r="F17" s="69">
-        <v>1</v>
-      </c>
-      <c r="G17" s="87" t="str">
+      <c r="F17" s="68">
+        <v>1</v>
+      </c>
+      <c r="G17" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="67">
+      <c r="H17" s="83"/>
+      <c r="I17" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="66">
         <v>0.21333333333333299</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="67">
         <v>0.305505046330389</v>
       </c>
-      <c r="L17" s="68">
+      <c r="L17" s="67">
         <v>0.69829724875517596</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="67">
         <v>0.484991319467168</v>
       </c>
-      <c r="N17" s="69">
-        <v>1</v>
-      </c>
-      <c r="O17" s="89" t="str">
+      <c r="N17" s="68">
+        <v>1</v>
+      </c>
+      <c r="O17" s="88" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P17" s="79"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="71">
+      <c r="P17" s="78"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="70">
         <v>-0.193333333333333</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="71">
         <v>0.305505046330389</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>-0.63283188168437798</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="71">
         <v>0.52684343473021999</v>
       </c>
-      <c r="F18" s="73">
-        <v>1</v>
-      </c>
-      <c r="G18" s="87" t="str">
+      <c r="F18" s="72">
+        <v>1</v>
+      </c>
+      <c r="G18" s="86" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="71">
+      <c r="H18" s="83"/>
+      <c r="I18" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="70">
         <v>-0.15333333333333299</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="71">
         <v>0.305505046330389</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="71">
         <v>-0.50190114754278203</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="71">
         <v>0.61573705804025702</v>
       </c>
-      <c r="N18" s="73">
-        <v>1</v>
-      </c>
-      <c r="O18" s="89" t="str">
+      <c r="N18" s="72">
+        <v>1</v>
+      </c>
+      <c r="O18" s="88" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P18" s="79"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G19" s="86"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-    </row>
-    <row r="21" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="I21" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="I22" s="76"/>
+      <c r="P18" s="78"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G19" s="85"/>
+      <c r="H19" s="58"/>
+    </row>
+    <row r="20" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+    </row>
+    <row r="21" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="I21" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="75"/>
+      <c r="I22" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
